--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 14.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">  Having now brought all my things on shore and secured them, I went back to my boat, and rowed or paddled her along the shore to her old harbour, where I laid her up, and made the best of my way to my old habitation, where I found everything safe and quiet.</t>
   </si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve"> When this had agitated my thoughts for two hours or more, with such violence that it set my very blood into a ferment, and my pulse beat as if I had been in a fever, merely with the extraordinary fervour of my mind about it, Nature—as if I had been fatigued and exhausted with the very thoughts of it—threw me into a sound sleep.</t>
   </si>
   <si>
-    <t>One would have thought I should have dreamed of it, but I did not, nor of anything relating to it, but I dreamed that as I was going out in the morning as usual from my castle, I saw upon the shore two canoes and eleven savages coming to land, and that they brought with them another savage whom they were going to kill in order to eat him; when, on a sudden, the savage that they were going to kill jumped away, and ran for his life; and I thought in my sleep that he came running into my little thick grove before my fortification, to hide himself; and that I seeing him alone, and not perceiving that the others sought him that way, showed myself to him, and smiling upon him, encouraged him: that he kneeled down to me, seeming to pray me to assist him; upon which I showed him my ladder, made him go up, and carried him into my cave, and he became my servant; and that as soon as I had got this man, I said to myself, “Now I may certainly venture to the mainland, for this fellow will serve me as a pilot, and will tell me what to do, and whither to go for provisions, and whither not to go for fear of being devoured; what places to venture into, and what to shun.” I waked with this thought; and was under such inexpressible impressions of joy at the prospect of my escape in my dream, that the disappointments which I felt upon coming to myself, and finding that it was no more than a dream, were equally extravagant the other way, and threw me into a very great dejection of spirits.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Upon this, however, I made this conclusion: that my only way to go about to attempt an escape was, to endeavour to get a savage into my possession: and, if possible, it should be one of their prisoners, whom they had condemned to be eaten, and should bring hither to kill.</t>
   </si>
   <si>
@@ -333,6 +330,15 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>I waked with this thought; and was under such inexpressible impressions of joy at the prospect of my escape in my dream, that the disappointments which I felt upon coming to myself, and finding that it was no more than a dream, were equally extravagant the other way, and threw me into a very great dejection of spirits.</t>
+  </si>
+  <si>
+    <t>One would have thought I should have dreamed of it, but I did not, nor of anything relating to it, but I dreamed that as I was going out in the morning as usual from my castle, I saw upon the shore two canoes and eleven savages coming to land, and that they brought with them another savage whom they were going to kill in order to eat him; when, on a sudden, the savage that they were going to kill jumped away, and ran for his life; and I thought in my sleep that he came running into my little thick grove before my fortification, to hide himself; and that I seeing him alone, and not perceiving that the others sought him that way, showed myself to him, and smiling upon him, encouraged him: that he kneeled down to me, seeming to pray me to assist him; upon which I showed him my ladder, made him go up, and carried him into my cave, and he became my servant; and that as soon as I had got this man, I said to myself, “Now I may certainly venture to the mainland, for this fellow will serve me as a pilot, and will tell me what to do, and whither to go for provisions, and whither not to go for fear of being devoured; what places to venture into, and what to shun.”</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
 </sst>
 </file>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
         <v>101</v>
-      </c>
-      <c r="B1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -875,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -883,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -899,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -907,7 +913,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -915,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +929,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +937,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +945,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +969,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +977,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +985,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +993,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +1001,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1009,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1017,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1025,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1033,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1041,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1049,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1057,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1065,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1073,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1081,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,7 +1089,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1091,7 +1097,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1105,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1113,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1121,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1129,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1137,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1145,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1161,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1169,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1177,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1185,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1193,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1201,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1209,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1217,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1225,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1233,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1241,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1257,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1265,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1273,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1281,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1289,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1297,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1305,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1313,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,7 +1321,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1323,7 +1329,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1337,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1345,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1353,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1361,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1369,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,7 +1377,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1379,7 +1385,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1387,7 +1393,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1395,7 +1401,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1403,7 +1409,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1411,7 +1417,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1419,7 +1425,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1427,7 +1433,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,7 +1441,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1443,7 +1449,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1451,7 +1457,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1459,7 +1465,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1467,7 +1473,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1475,7 +1481,15 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
